--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.56869633333334</v>
+        <v>2.997390666666667</v>
       </c>
       <c r="H2">
-        <v>154.706089</v>
+        <v>8.992172</v>
       </c>
       <c r="I2">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="J2">
-        <v>0.1855839901450455</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>20.64694833333333</v>
+        <v>0.1548553333333333</v>
       </c>
       <c r="N2">
-        <v>61.940845</v>
+        <v>0.464566</v>
       </c>
       <c r="O2">
-        <v>0.9736914792326969</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9736914792326971</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1064.736208811689</v>
+        <v>0.4641619308168888</v>
       </c>
       <c r="R2">
-        <v>9582.625879305206</v>
+        <v>4.177457377352</v>
       </c>
       <c r="S2">
-        <v>0.1807015498862355</v>
+        <v>0.01499229953737403</v>
       </c>
       <c r="T2">
-        <v>0.1807015498862356</v>
+        <v>0.01499229953737403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.56869633333334</v>
+        <v>165.03522</v>
       </c>
       <c r="H3">
-        <v>154.706089</v>
+        <v>495.1056600000001</v>
       </c>
       <c r="I3">
-        <v>0.1855839901450455</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="J3">
-        <v>0.1855839901450455</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.464566</v>
       </c>
       <c r="O3">
-        <v>0.007302837985843059</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.007302837985843059</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>7.985687660263778</v>
+        <v>25.55658400484</v>
       </c>
       <c r="R3">
-        <v>71.871188942374</v>
+        <v>230.00925604356</v>
       </c>
       <c r="S3">
-        <v>0.001355289812795562</v>
+        <v>0.825470460014473</v>
       </c>
       <c r="T3">
-        <v>0.001355289812795562</v>
+        <v>0.825470460014473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,418 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.56869633333334</v>
+        <v>31.89607</v>
       </c>
       <c r="H4">
-        <v>154.706089</v>
+        <v>95.68821</v>
       </c>
       <c r="I4">
-        <v>0.1855839901450455</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="J4">
-        <v>0.1855839901450455</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.403012</v>
+        <v>0.1548553333333333</v>
       </c>
       <c r="N4">
-        <v>1.209036</v>
+        <v>0.464566</v>
       </c>
       <c r="O4">
-        <v>0.01900568278146</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.01900568278146001</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>20.78280344668934</v>
+        <v>4.939276551873332</v>
       </c>
       <c r="R4">
-        <v>187.045231020204</v>
+        <v>44.45348896686</v>
       </c>
       <c r="S4">
-        <v>0.003527150446014333</v>
+        <v>0.159537240448153</v>
       </c>
       <c r="T4">
-        <v>0.003527150446014334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>165.03522</v>
-      </c>
-      <c r="H5">
-        <v>495.1056600000001</v>
-      </c>
-      <c r="I5">
-        <v>0.5939241598059933</v>
-      </c>
-      <c r="J5">
-        <v>0.5939241598059933</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>20.64694833333333</v>
-      </c>
-      <c r="N5">
-        <v>61.940845</v>
-      </c>
-      <c r="O5">
-        <v>0.9736914792326969</v>
-      </c>
-      <c r="P5">
-        <v>0.9736914792326971</v>
-      </c>
-      <c r="Q5">
-        <v>3407.4736605203</v>
-      </c>
-      <c r="R5">
-        <v>30667.2629446827</v>
-      </c>
-      <c r="S5">
-        <v>0.5782988937135344</v>
-      </c>
-      <c r="T5">
-        <v>0.5782988937135344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>165.03522</v>
-      </c>
-      <c r="H6">
-        <v>495.1056600000001</v>
-      </c>
-      <c r="I6">
-        <v>0.5939241598059933</v>
-      </c>
-      <c r="J6">
-        <v>0.5939241598059933</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1548553333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.464566</v>
-      </c>
-      <c r="O6">
-        <v>0.007302837985843059</v>
-      </c>
-      <c r="P6">
-        <v>0.007302837985843059</v>
-      </c>
-      <c r="Q6">
-        <v>25.55658400484</v>
-      </c>
-      <c r="R6">
-        <v>230.00925604356</v>
-      </c>
-      <c r="S6">
-        <v>0.004337331914941131</v>
-      </c>
-      <c r="T6">
-        <v>0.004337331914941131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>165.03522</v>
-      </c>
-      <c r="H7">
-        <v>495.1056600000001</v>
-      </c>
-      <c r="I7">
-        <v>0.5939241598059933</v>
-      </c>
-      <c r="J7">
-        <v>0.5939241598059933</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.403012</v>
-      </c>
-      <c r="N7">
-        <v>1.209036</v>
-      </c>
-      <c r="O7">
-        <v>0.01900568278146</v>
-      </c>
-      <c r="P7">
-        <v>0.01900568278146001</v>
-      </c>
-      <c r="Q7">
-        <v>66.51117408264</v>
-      </c>
-      <c r="R7">
-        <v>598.6005667437601</v>
-      </c>
-      <c r="S7">
-        <v>0.01128793417751787</v>
-      </c>
-      <c r="T7">
-        <v>0.01128793417751787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>61.26863233333334</v>
-      </c>
-      <c r="H8">
-        <v>183.805897</v>
-      </c>
-      <c r="I8">
-        <v>0.2204918500489612</v>
-      </c>
-      <c r="J8">
-        <v>0.2204918500489612</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>20.64694833333333</v>
-      </c>
-      <c r="N8">
-        <v>61.940845</v>
-      </c>
-      <c r="O8">
-        <v>0.9736914792326969</v>
-      </c>
-      <c r="P8">
-        <v>0.9736914792326971</v>
-      </c>
-      <c r="Q8">
-        <v>1265.010286240329</v>
-      </c>
-      <c r="R8">
-        <v>11385.09257616297</v>
-      </c>
-      <c r="S8">
-        <v>0.214691035632927</v>
-      </c>
-      <c r="T8">
-        <v>0.214691035632927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>61.26863233333334</v>
-      </c>
-      <c r="H9">
-        <v>183.805897</v>
-      </c>
-      <c r="I9">
-        <v>0.2204918500489612</v>
-      </c>
-      <c r="J9">
-        <v>0.2204918500489612</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1548553333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.464566</v>
-      </c>
-      <c r="O9">
-        <v>0.007302837985843059</v>
-      </c>
-      <c r="P9">
-        <v>0.007302837985843059</v>
-      </c>
-      <c r="Q9">
-        <v>9.487774482855777</v>
-      </c>
-      <c r="R9">
-        <v>85.389970345702</v>
-      </c>
-      <c r="S9">
-        <v>0.001610216258106365</v>
-      </c>
-      <c r="T9">
-        <v>0.001610216258106365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>61.26863233333334</v>
-      </c>
-      <c r="H10">
-        <v>183.805897</v>
-      </c>
-      <c r="I10">
-        <v>0.2204918500489612</v>
-      </c>
-      <c r="J10">
-        <v>0.2204918500489612</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.403012</v>
-      </c>
-      <c r="N10">
-        <v>1.209036</v>
-      </c>
-      <c r="O10">
-        <v>0.01900568278146</v>
-      </c>
-      <c r="P10">
-        <v>0.01900568278146001</v>
-      </c>
-      <c r="Q10">
-        <v>24.69199405392133</v>
-      </c>
-      <c r="R10">
-        <v>222.227946485292</v>
-      </c>
-      <c r="S10">
-        <v>0.004190598157927802</v>
-      </c>
-      <c r="T10">
-        <v>0.004190598157927803</v>
+        <v>0.159537240448153</v>
       </c>
     </row>
   </sheetData>
